--- a/src/test/resources/testdata/Testdata.xlsx
+++ b/src/test/resources/testdata/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atinsingh/OneDrive/pragra/selframework/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuchi\git\pragrasel\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57A912A5-1A7A-5449-BC7E-8E2AD271A1CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0AA88C0F-E4E5-47DE-AA56-FF72DE85B13C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33520" yWindow="1620" windowWidth="25440" windowHeight="14600" xr2:uid="{C199DA99-68C3-A64D-AF44-6364730A6B61}"/>
+    <workbookView xWindow="33525" yWindow="1620" windowWidth="25440" windowHeight="14595" xr2:uid="{C199DA99-68C3-A64D-AF44-6364730A6B61}"/>
   </bookViews>
   <sheets>
     <sheet name="ContactTest" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>892723873672671hmnsbnhjgs6772hkdsnjhidsty23bjsj</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Learn Java</t>
+  </si>
+  <si>
+    <t>Learning java and selenium</t>
   </si>
 </sst>
 </file>
@@ -463,21 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE29B8D-DC37-C544-9ED1-07BC9C0EF0FC}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -492,7 +510,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -506,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -520,13 +538,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{8D63F918-8C2E-3A49-951A-A023EE633C9B}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{32A28E86-A659-2642-83D3-E89D21BFE56D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{9682A592-8C67-4B45-AAD9-48187049A6EE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{4CC99E88-D78B-4650-8AAB-17A514830F92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -535,12 +580,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83BAD7C-8D0A-AB47-9934-558CBB7F29F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3DD540D0-5F5A-4F69-8CF2-50FC97FD788C}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0E56EC65-29E0-48A3-9554-EFF0E1C1FCB5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>